--- a/hourly datasets/cap_gen_year15final.xlsx
+++ b/hourly datasets/cap_gen_year15final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.107558542673693</v>
+        <v>0.1050794602663998</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00166363884481158</v>
+        <v>0.002616647741689461</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002910644736884685</v>
+        <v>0.000699325292216118</v>
       </c>
       <c r="D3" t="n">
-        <v>1.335441404703987</v>
+        <v>3.357613022016416</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1745634745781741</v>
+        <v>0.02823042075705754</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.004041210924321434</v>
+        <v>0.0012459909502047</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007368488613944596</v>
+        <v>0.003987304533174221</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1092221815185046</v>
+        <v>0.1076961080080893</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004780395321070835</v>
+        <v>0.007992508331426796</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004664346900497258</v>
+        <v>0.001343919359700321</v>
       </c>
       <c r="D4" t="n">
-        <v>1.686685902032218</v>
+        <v>5.587098511468807</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1123994477943705</v>
+        <v>0.15382048003193</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00436173141733996</v>
+        <v>0.005358466861578125</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01392252205948163</v>
+        <v>0.01062654980127547</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1123389379947639</v>
+        <v>0.1130719685978266</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006080565339099567</v>
+        <v>0.01533011393984426</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004783360073665133</v>
+        <v>0.004068632681849238</v>
       </c>
       <c r="D5" t="n">
-        <v>1.404040152234123</v>
+        <v>4.517458142133467</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1258084322625742</v>
+        <v>0.08825169508336854</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.003294795957780355</v>
+        <v>0.007355715875370269</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01545592663597948</v>
+        <v>0.02330451200431826</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1136391080127926</v>
+        <v>0.1204095742062441</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00556162348604423</v>
+        <v>0.02824243719058972</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002530978013047263</v>
+        <v>0.007633326614986345</v>
       </c>
       <c r="D6" t="n">
-        <v>1.1893188751057</v>
+        <v>5.726291775576585</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04232047297836611</v>
+        <v>0.06090806772698037</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006009256147580348</v>
+        <v>0.01328134870897334</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01052232135733042</v>
+        <v>0.0432035256722061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1131201661597373</v>
+        <v>0.1333218974569895</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.004716108838982682</v>
+        <v>0.02478967440452952</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001422314843852181</v>
+        <v>0.002817234013060411</v>
       </c>
       <c r="D7" t="n">
-        <v>1.076512651071698</v>
+        <v>6.108794103616588</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04214200907448772</v>
+        <v>0.05171976168954228</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001928379734994062</v>
+        <v>0.01926798021718982</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007503837942971304</v>
+        <v>0.03031136859186923</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1122746515126757</v>
+        <v>0.1298691346709293</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00401771210439302</v>
+        <v>0.02094605722373222</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003118797235030241</v>
+        <v>0.008042606108831698</v>
       </c>
       <c r="D8" t="n">
-        <v>1.054666501096792</v>
+        <v>6.123953916991939</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05202194089105176</v>
+        <v>0.2044865667363685</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.002095116627918028</v>
+        <v>0.005182792912070262</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01013054083670407</v>
+        <v>0.03670932153539419</v>
       </c>
       <c r="H8" t="n">
-        <v>0.111576254778086</v>
+        <v>0.126025517490132</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003923020882399485</v>
+        <v>0.02085494399640334</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001572330474338871</v>
+        <v>0.00460145154192373</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7500524567229596</v>
+        <v>5.533274735784835</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04269771038109135</v>
+        <v>0.1057728683738496</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0008412630534999266</v>
+        <v>0.01183623576427352</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007004778711299043</v>
+        <v>0.02987365222853316</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1114815635560925</v>
+        <v>0.1259344042628031</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.107558542673693</v>
+        <v>-0.1050794602663998</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001594109542016311</v>
+        <v>0.0005069664040439407</v>
       </c>
       <c r="D10" t="n">
-        <v>-105.981081286037</v>
+        <v>-228.5873401718663</v>
       </c>
       <c r="E10" t="n">
-        <v>1.082778934552516e-05</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1106829883356287</v>
+        <v>-0.106073099310044</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1044340970117574</v>
+        <v>-0.1040858212227555</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04574061273845515</v>
+        <v>-0.04673655610730883</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001716655326915758</v>
+        <v>0.0005441861370308571</v>
       </c>
       <c r="D11" t="n">
-        <v>-40.10867257317592</v>
+        <v>-93.21436166117368</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01828425190482976</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0491052483623438</v>
+        <v>-0.04780314471529819</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04237597711456653</v>
+        <v>-0.04566996749931947</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06181792993523787</v>
+        <v>0.05834290415909097</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03091346432454237</v>
+        <v>-0.03257552022828045</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001649989519051332</v>
+        <v>0.0005257913416741138</v>
       </c>
       <c r="D12" t="n">
-        <v>-28.76378945134173</v>
+        <v>-68.43658122450861</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01314488630690979</v>
+        <v>6.969491333696976e-74</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0341474348752632</v>
+        <v>-0.03360605559580012</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02767949377382154</v>
+        <v>-0.03154498486076079</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07664507834915066</v>
+        <v>0.07250394003811936</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02970313934275322</v>
+        <v>-0.03046910075102528</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001634651559141086</v>
+        <v>0.000518041775051201</v>
       </c>
       <c r="D13" t="n">
-        <v>-27.77295197715358</v>
+        <v>-65.21076060503125</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02271227261201976</v>
+        <v>2.416895154381112e-60</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03290704776334876</v>
+        <v>-0.03148444720006648</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0264992309221577</v>
+        <v>-0.02945375430198409</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07785540333093981</v>
+        <v>0.07461035951537452</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02358029979079</v>
+        <v>-0.02381916608994797</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001628710536157821</v>
+        <v>0.0005118445595539397</v>
       </c>
       <c r="D14" t="n">
-        <v>-23.43707376365907</v>
+        <v>-53.34972717351289</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05870663583816386</v>
+        <v>6.660663760506254e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02677256366193221</v>
+        <v>-0.02482236617903563</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02038803591964779</v>
+        <v>-0.02281596600086032</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08397824288290302</v>
+        <v>0.08126029417645184</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02060299604843042</v>
+        <v>-0.02212653754626784</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001612750750631743</v>
+        <v>0.0005041223902920719</v>
       </c>
       <c r="D15" t="n">
-        <v>-20.47301984046611</v>
+        <v>-50.02791680169585</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0342471175020779</v>
+        <v>3.924495661535669e-19</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02376397882724266</v>
+        <v>-0.02311460241235599</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01744201326961821</v>
+        <v>-0.02113847268017969</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0869555466252626</v>
+        <v>0.08295292272013197</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01957318829358633</v>
+        <v>-0.0213452221449854</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001611893999349369</v>
+        <v>0.0005019659167107206</v>
       </c>
       <c r="D16" t="n">
-        <v>-20.23864630080395</v>
+        <v>-48.69624393507612</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03175639051427796</v>
+        <v>3.849102762630352e-23</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02273249202332439</v>
+        <v>-0.02232906038915536</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01641388456384827</v>
+        <v>-0.02036138390081545</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0879853543801067</v>
+        <v>0.08373423812141439</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01941091992367821</v>
+        <v>-0.02079176833113184</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001624274942115713</v>
+        <v>0.0005074026780684215</v>
       </c>
       <c r="D17" t="n">
-        <v>-19.77649240271731</v>
+        <v>-47.26461036401172</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04079125499145695</v>
+        <v>0.001786222043244245</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02259449051295892</v>
+        <v>-0.02178626247006482</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0162273493343975</v>
+        <v>-0.01979727419219885</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08814762275001481</v>
+        <v>0.08428769193526797</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01775491249866244</v>
+        <v>-0.01916729019050374</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00164164850217393</v>
+        <v>0.000509892705822016</v>
       </c>
       <c r="D18" t="n">
-        <v>-16.71716050763626</v>
+        <v>-42.37822927458218</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05632845832756198</v>
+        <v>4.244517655294516e-07</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02097253515012662</v>
+        <v>-0.02016666470781468</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01453728984719824</v>
+        <v>-0.01816791567319281</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08980363017503058</v>
+        <v>0.08591217007589606</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01383361887712445</v>
+        <v>-0.01423106186205974</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001642310981374886</v>
+        <v>0.0005047539611743892</v>
       </c>
       <c r="D19" t="n">
-        <v>-12.29803276272535</v>
+        <v>-31.38864794155348</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04284612145105596</v>
+        <v>0.04931255358225387</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01705253998704416</v>
+        <v>-0.01522036459181895</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01061469776720474</v>
+        <v>-0.01324175913230053</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09372492379656858</v>
+        <v>0.09084839840434007</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01051195131161802</v>
+        <v>-0.01120274946867032</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001653359875767087</v>
+        <v>0.0005153325585861909</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.638577927208766</v>
+        <v>-24.3023365592085</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07286608343677323</v>
+        <v>0.06494468931339363</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01375252808938401</v>
+        <v>-0.01221278592917946</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.007271374533852025</v>
+        <v>-0.01019271300816118</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09704659136207501</v>
+        <v>0.09387671079772948</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.006888621073685183</v>
+        <v>-0.00889528363895584</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00167326044836054</v>
+        <v>0.0005188113001432928</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.421861324700053</v>
+        <v>-18.28262899442666</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05307801191808066</v>
+        <v>0.01281937232005859</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01016820326133858</v>
+        <v>-0.009912138328800366</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.003609038886031779</v>
+        <v>-0.007878428949111315</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1006699216000078</v>
+        <v>0.09618417662744397</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.00488204458658319</v>
+        <v>-0.006696284553999147</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001675047212650411</v>
+        <v>0.0005183352524455296</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.007114928214588</v>
+        <v>-13.18383853313903</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1039463128705584</v>
+        <v>0.1150947285512146</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.008165128525938951</v>
+        <v>-0.007712206206320567</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.001598960647227429</v>
+        <v>-0.005680362901677728</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1026764980871098</v>
+        <v>0.09838317571240066</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.003721298047758998</v>
+        <v>-0.006085875672799853</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001679923465539029</v>
+        <v>0.0005197762041982257</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.995607196803735</v>
+        <v>-12.52915930639699</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0526660139550064</v>
+        <v>0.0660059817044503</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.007013939369511531</v>
+        <v>-0.007104621554486949</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0004286567260064693</v>
+        <v>-0.005067129791112759</v>
       </c>
       <c r="H23" t="n">
-        <v>0.103837244625934</v>
+        <v>0.09899358459359996</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.002285322887063479</v>
+        <v>-0.003915038677801314</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001651833505366641</v>
+        <v>0.0005208360296117919</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.658345587895008</v>
+        <v>-7.519050021944413</v>
       </c>
       <c r="E24" t="n">
-        <v>0.07043689263955059</v>
+        <v>0.04840239168073581</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.005522907121995102</v>
+        <v>-0.004935861773897806</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0009522613478681432</v>
+        <v>-0.002894215581704823</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1052732197866295</v>
+        <v>0.1011644215885985</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001371333199502399</v>
+        <v>-0.002740078882508847</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001668112407018412</v>
+        <v>0.0005129720100060278</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.798982622791148</v>
+        <v>-6.064298565175729</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1246769186600988</v>
+        <v>0.1219549883686271</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.004640823830351341</v>
+        <v>-0.003745488732031723</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001898157431346543</v>
+        <v>-0.001734669032985971</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1061872094741906</v>
+        <v>0.102339381383891</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.006022891621167629</v>
+        <v>0.02383908531155556</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001360793629470568</v>
+        <v>0.00455665840254458</v>
       </c>
       <c r="D26" t="n">
-        <v>2.148191516206292</v>
+        <v>13.5958273921253</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02065221391043407</v>
+        <v>0.05433002101649512</v>
       </c>
       <c r="F26" t="n">
-        <v>0.003355745855425067</v>
+        <v>0.01490817300317007</v>
       </c>
       <c r="G26" t="n">
-        <v>0.008690037386910189</v>
+        <v>0.03276999761994104</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1135814342948607</v>
+        <v>0.1289185455779553</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year15final.xlsx
+++ b/hourly datasets/cap_gen_year15final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1050794602663998</v>
+        <v>0.1035516600072688</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002616647741689461</v>
+        <v>0.002271800885897508</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000699325292216118</v>
+        <v>0.0006840872002524728</v>
       </c>
       <c r="D3" t="n">
-        <v>3.357613022016416</v>
+        <v>2.77480781244627</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02823042075705754</v>
+        <v>0.09235581793320459</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0012459909502047</v>
+        <v>0.0009310099948118992</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003987304533174221</v>
+        <v>0.003612591776983117</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1076961080080893</v>
+        <v>0.1058234608931663</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007992508331426796</v>
+        <v>0.004943305792008975</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001343919359700321</v>
+        <v>0.001159798341195613</v>
       </c>
       <c r="D4" t="n">
-        <v>5.587098511468807</v>
+        <v>4.964698409608322</v>
       </c>
       <c r="E4" t="n">
-        <v>0.15382048003193</v>
+        <v>0.1140409547157495</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005358466861578125</v>
+        <v>0.002670135622908032</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01062654980127547</v>
+        <v>0.007216475961109918</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1130719685978266</v>
+        <v>0.1084949657992778</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01533011393984426</v>
+        <v>0.004401534876427741</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004068632681849238</v>
+        <v>0.002823283887766188</v>
       </c>
       <c r="D5" t="n">
-        <v>4.517458142133467</v>
+        <v>3.487066960723521</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08825169508336854</v>
+        <v>0.07283051496621137</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007355715875370269</v>
+        <v>-0.001132018313915927</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02330451200431826</v>
+        <v>0.009935088066771404</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1204095742062441</v>
+        <v>0.1079531948836966</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02824243719058972</v>
+        <v>0.007128866057492494</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007633326614986345</v>
+        <v>0.003617730003607193</v>
       </c>
       <c r="D6" t="n">
-        <v>5.726291775576585</v>
+        <v>3.013658618251912</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06090806772698037</v>
+        <v>0.07665933976998189</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01328134870897334</v>
+        <v>3.822020723871222e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0432035256722061</v>
+        <v>0.01421951190774628</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1333218974569895</v>
+        <v>0.1106805260647613</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02478967440452952</v>
+        <v>0.001182161028872669</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002817234013060411</v>
+        <v>0.002500541474729845</v>
       </c>
       <c r="D7" t="n">
-        <v>6.108794103616588</v>
+        <v>1.879072300438434</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05171976168954228</v>
+        <v>0.1484853245337366</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01926798021718982</v>
+        <v>0.05752872898048147</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03031136859186923</v>
+        <v>0.00587029908636945</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1298691346709293</v>
+        <v>0.1047338210361415</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02094605722373222</v>
+        <v>0.00101532724905343</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008042606108831698</v>
+        <v>0.002673000480103356</v>
       </c>
       <c r="D8" t="n">
-        <v>6.123953916991939</v>
+        <v>1.21137320765696</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2044865667363685</v>
+        <v>0.1337502852836422</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005182792912070262</v>
+        <v>0.0259593593400633</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03670932153539419</v>
+        <v>0.005807990656569425</v>
       </c>
       <c r="H8" t="n">
-        <v>0.126025517490132</v>
+        <v>0.1045669872563223</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02085494399640334</v>
+        <v>-7.31681095746603e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00460145154192373</v>
+        <v>0.00412995894157251</v>
       </c>
       <c r="D9" t="n">
-        <v>5.533274735784835</v>
+        <v>1.180762929962993</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1057728683738496</v>
+        <v>0.4333874889153903</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01183623576427352</v>
+        <v>-0.007492044934541851</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02987365222853316</v>
+        <v>0.006902199937152298</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1259344042628031</v>
+        <v>0.1035443431963114</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1050794602663998</v>
+        <v>-0.1035516600072688</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005069664040439407</v>
+        <v>0.0005072025824092657</v>
       </c>
       <c r="D10" t="n">
-        <v>-228.5873401718663</v>
+        <v>-225.2809931198082</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.106073099310044</v>
+        <v>-0.1045457620743881</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1040858212227555</v>
+        <v>-0.1025575579401496</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04673655610730883</v>
+        <v>-0.04550154853708591</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005441861370308571</v>
+        <v>0.0005438176021203132</v>
       </c>
       <c r="D11" t="n">
-        <v>-93.21436166117368</v>
+        <v>-91.13683647913568</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04780314471529819</v>
+        <v>-0.046567414963666</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04566996749931947</v>
+        <v>-0.04443568211050582</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05834290415909097</v>
+        <v>0.05805011147018292</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03257552022828045</v>
+        <v>-0.03197786687802461</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005257913416741138</v>
+        <v>0.0005268023818411643</v>
       </c>
       <c r="D12" t="n">
-        <v>-68.43658122450861</v>
+        <v>-66.63528813425445</v>
       </c>
       <c r="E12" t="n">
-        <v>6.969491333696976e-74</v>
+        <v>8.579651943970432e-52</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03360605559580012</v>
+        <v>-0.0330103839960986</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03154498486076079</v>
+        <v>-0.03094534975995062</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07250394003811936</v>
+        <v>0.07157379312924422</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03046910075102528</v>
+        <v>-0.03005371150593816</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000518041775051201</v>
+        <v>0.0005186715372374234</v>
       </c>
       <c r="D13" t="n">
-        <v>-65.21076060503125</v>
+        <v>-63.55130334851826</v>
       </c>
       <c r="E13" t="n">
-        <v>2.416895154381112e-60</v>
+        <v>4.775332357588269e-65</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03148444720006648</v>
+        <v>-0.0310702924011956</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02945375430198409</v>
+        <v>-0.02903713061068073</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07461035951537452</v>
+        <v>0.07349794850133066</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02381916608994797</v>
+        <v>-0.02362582391407159</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005118445595539397</v>
+        <v>0.0005138103174467605</v>
       </c>
       <c r="D14" t="n">
-        <v>-53.34972717351289</v>
+        <v>-51.82298580549169</v>
       </c>
       <c r="E14" t="n">
-        <v>6.660663760506254e-06</v>
+        <v>3.12897194807217e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02482236617903563</v>
+        <v>-0.02463287696519418</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02281596600086032</v>
+        <v>-0.02261877086294901</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08126029417645184</v>
+        <v>0.07992583609319724</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02212653754626784</v>
+        <v>-0.02197295761017156</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005041223902920719</v>
+        <v>0.0005058058894559815</v>
       </c>
       <c r="D15" t="n">
-        <v>-50.02791680169585</v>
+        <v>-48.66222345289709</v>
       </c>
       <c r="E15" t="n">
-        <v>3.924495661535669e-19</v>
+        <v>2.534758636090278e-26</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02311460241235599</v>
+        <v>-0.02296432221438734</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02113847268017969</v>
+        <v>-0.02098159300595578</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08295292272013197</v>
+        <v>0.08157870239709727</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0213452221449854</v>
+        <v>-0.02082349909290946</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005019659167107206</v>
+        <v>0.0005050509705429954</v>
       </c>
       <c r="D16" t="n">
-        <v>-48.69624393507612</v>
+        <v>-46.91514663242377</v>
       </c>
       <c r="E16" t="n">
-        <v>3.849102762630352e-23</v>
+        <v>4.019194335280186e-29</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02232906038915536</v>
+        <v>-0.02181338408392874</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02036138390081545</v>
+        <v>-0.01983361410189018</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08373423812141439</v>
+        <v>0.08272816091435936</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02079176833113184</v>
+        <v>-0.02022908649775869</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005074026780684215</v>
+        <v>0.0005107406941877435</v>
       </c>
       <c r="D17" t="n">
-        <v>-47.26461036401172</v>
+        <v>-45.2501724228857</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001786222043244245</v>
+        <v>1.493820359830621e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02178626247006482</v>
+        <v>-0.02123012319013758</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01979727419219885</v>
+        <v>-0.01922804980537981</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08428769193526797</v>
+        <v>0.08332257350951014</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01916729019050374</v>
+        <v>-0.01868180323926643</v>
       </c>
       <c r="C18" t="n">
-        <v>0.000509892705822016</v>
+        <v>0.0005133976541210357</v>
       </c>
       <c r="D18" t="n">
-        <v>-42.37822927458218</v>
+        <v>-40.50507947352057</v>
       </c>
       <c r="E18" t="n">
-        <v>4.244517655294516e-07</v>
+        <v>9.308157813445389e-10</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02016666470781468</v>
+        <v>-0.019688047488413</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01816791567319281</v>
+        <v>-0.01767555899011986</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08591217007589606</v>
+        <v>0.08486985676800241</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01423106186205974</v>
+        <v>-0.01375879507397638</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0005047539611743892</v>
+        <v>0.0005066432659797216</v>
       </c>
       <c r="D19" t="n">
-        <v>-31.38864794155348</v>
+        <v>-29.82110958928846</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04931255358225387</v>
+        <v>0.004430486168636368</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01522036459181895</v>
+        <v>-0.01475180091943292</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01324175913230053</v>
+        <v>-0.01276578922851984</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09084839840434007</v>
+        <v>0.08979286493329244</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01120274946867032</v>
+        <v>-0.01066353889316212</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0005153325585861909</v>
+        <v>0.0005165612062493861</v>
       </c>
       <c r="D20" t="n">
-        <v>-24.3023365592085</v>
+        <v>-22.77794337368379</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06494468931339363</v>
+        <v>0.003807948801772707</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01221278592917946</v>
+        <v>-0.01167598359744673</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01019271300816118</v>
+        <v>-0.009651094188877513</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09387671079772948</v>
+        <v>0.0928881211141067</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.00889528363895584</v>
+        <v>-0.007971494710037623</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005188113001432928</v>
+        <v>0.0005198899267556144</v>
       </c>
       <c r="D21" t="n">
-        <v>-18.28262899442666</v>
+        <v>-16.34996135441444</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01281937232005859</v>
+        <v>0.0007025361012678011</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.009912138328800366</v>
+        <v>-0.008990463605284941</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.007878428949111315</v>
+        <v>-0.006952525814790303</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09618417662744397</v>
+        <v>0.09558016529723121</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006696284553999147</v>
+        <v>-0.006276918547910124</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005183352524455296</v>
+        <v>0.0005217135478998222</v>
       </c>
       <c r="D22" t="n">
-        <v>-13.18383853313903</v>
+        <v>-11.74999643277893</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1150947285512146</v>
+        <v>0.07888572734725638</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.007712206206320567</v>
+        <v>-0.007299461692614758</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005680362901677728</v>
+        <v>-0.005254375403205489</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09838317571240066</v>
+        <v>0.0972747414593587</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.006085875672799853</v>
+        <v>-0.005691558156882836</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0005197762041982257</v>
+        <v>0.0005194599338574708</v>
       </c>
       <c r="D23" t="n">
-        <v>-12.52915930639699</v>
+        <v>-10.7663315771918</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0660059817044503</v>
+        <v>0.04890490117565775</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.007104621554486949</v>
+        <v>-0.006709684300051866</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.005067129791112759</v>
+        <v>-0.004673432013713807</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09899358459359996</v>
+        <v>0.09786010185038599</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.003915038677801314</v>
+        <v>-0.003351629454146952</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0005208360296117919</v>
+        <v>0.0005216153424621573</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.519050021944413</v>
+        <v>-5.537308793324643</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04840239168073581</v>
+        <v>0.003872847971501879</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.004935861773897806</v>
+        <v>-0.004373980112709091</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.002894215581704823</v>
+        <v>-0.002329278795584814</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1011644215885985</v>
+        <v>0.1002000305531219</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002740078882508847</v>
+        <v>-0.002513949285762939</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0005129720100060278</v>
+        <v>0.0005145849590127363</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.064298565175729</v>
+        <v>-5.029083678265312</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1219549883686271</v>
+        <v>0.002023359984642311</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.003745488732031723</v>
+        <v>-0.003522520582913741</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.001734669032985971</v>
+        <v>-0.001505377988612135</v>
       </c>
       <c r="H25" t="n">
-        <v>0.102339381383891</v>
+        <v>0.1010377107215059</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02383908531155556</v>
+        <v>0.003223935057579217</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00455665840254458</v>
+        <v>0.001974971083303871</v>
       </c>
       <c r="D26" t="n">
-        <v>13.5958273921253</v>
+        <v>4.412452326525066</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05433002101649512</v>
+        <v>0.2244174520974901</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01490817300317007</v>
+        <v>0.001083207542279063</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03276999761994104</v>
+        <v>0.0048226244519292</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1289185455779553</v>
+        <v>0.106775595064848</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year15final.xlsx
+++ b/hourly datasets/cap_gen_year15final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,575 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1035516600072688</v>
+        <v>0.1364018150070078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002271800885897508</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0006840872002524728</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.77480781244627</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.09235581793320459</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0009310099948118992</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.003612591776983117</v>
-      </c>
+        <v>0.101176295610906</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.1058234608931663</v>
+        <v>0.2375781106179138</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004943305792008975</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.001159798341195613</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.964698409608322</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1140409547157495</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.002670135622908032</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.007216475961109918</v>
-      </c>
+        <v>0.09201565911639389</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1084949657992778</v>
+        <v>0.2284174741234017</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004401534876427741</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.002823283887766188</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.487066960723521</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.07283051496621137</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.001132018313915927</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.009935088066771404</v>
-      </c>
+        <v>0.04479521435251291</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1079531948836966</v>
+        <v>0.1811970293595207</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007128866057492494</v>
+        <v>0.02675900860212063</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003617730003607193</v>
+        <v>0.001433275392983477</v>
       </c>
       <c r="D6" t="n">
-        <v>3.013658618251912</v>
+        <v>4.660794460498439</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07665933976998189</v>
+        <v>0.01532027870302154</v>
       </c>
       <c r="F6" t="n">
-        <v>3.822020723871222e-05</v>
+        <v>0.02394187000328435</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01421951190774628</v>
+        <v>0.02957614720095681</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1106805260647613</v>
+        <v>0.1631608236091285</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001182161028872669</v>
+        <v>0.008986324125547314</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002500541474729845</v>
+        <v>0.0005301127614512826</v>
       </c>
       <c r="D7" t="n">
-        <v>1.879072300438434</v>
+        <v>2.962882863266003</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1484853245337366</v>
+        <v>0.001192453513833534</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05752872898048147</v>
+        <v>0.007945711933204343</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00587029908636945</v>
+        <v>0.01002693631789052</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1047338210361415</v>
+        <v>0.1453881391325551</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00101532724905343</v>
+        <v>0.007305430032084151</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002673000480103356</v>
+        <v>0.0003118449228648973</v>
       </c>
       <c r="D8" t="n">
-        <v>1.21137320765696</v>
+        <v>1.747354719122576</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1337502852836422</v>
+        <v>0.001595936848547845</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0259593593400633</v>
+        <v>0.006694047264714171</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005807990656569425</v>
+        <v>0.00791681279945388</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1045669872563223</v>
+        <v>0.143707245039092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.31681095746603e-06</v>
+        <v>0.007223353529744135</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00412995894157251</v>
+        <v>0.0004227825746509392</v>
       </c>
       <c r="D9" t="n">
-        <v>1.180762929962993</v>
+        <v>1.704182433572527</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4333874889153903</v>
+        <v>0.002783704416141407</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.007492044934541851</v>
+        <v>0.006394057107021611</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006902199937152298</v>
+        <v>0.008052649952466857</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1035443431963114</v>
+        <v>0.1436251685367519</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1035516600072688</v>
+        <v>0.006642132569055025</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005072025824092657</v>
+        <v>0.0003545535118238823</v>
       </c>
       <c r="D10" t="n">
-        <v>-225.2809931198082</v>
+        <v>1.734455117449205</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.001641612324939235</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1045457620743881</v>
+        <v>0.005946969465727064</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1025575579401496</v>
+        <v>0.007337295672382727</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1430439475760628</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04550154853708591</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005438176021203132</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-91.13683647913568</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.046567414963666</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.04443568211050582</v>
-      </c>
+        <v>0.03088647470208723</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.05805011147018292</v>
+        <v>0.167288289709095</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03197786687802461</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005268023818411643</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-66.63528813425445</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8.579651943970432e-52</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.0330103839960986</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.03094534975995062</v>
-      </c>
+        <v>0.0517890340121508</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.07157379312924422</v>
+        <v>0.1881908490191586</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03005371150593816</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005186715372374234</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-63.55130334851826</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.775332357588269e-65</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.0310702924011956</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.02903713061068073</v>
-      </c>
+        <v>0.06564128595611979</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.07349794850133066</v>
+        <v>0.2020431009631276</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02362582391407159</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0005138103174467605</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-51.82298580549169</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3.12897194807217e-06</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.02463287696519418</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.02261877086294901</v>
-      </c>
+        <v>0.07502495109961144</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.07992583609319724</v>
+        <v>0.2114267661066193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02197295761017156</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0005058058894559815</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-48.66222345289709</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.534758636090278e-26</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.02296432221438734</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.02098159300595578</v>
-      </c>
+        <v>0.08101156369199451</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.08157870239709727</v>
+        <v>0.2174133786990023</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02082349909290946</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0005050509705429954</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-46.91514663242377</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4.019194335280186e-29</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.02181338408392874</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.01983361410189018</v>
-      </c>
+        <v>0.08387322398626233</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.08272816091435936</v>
+        <v>0.2202750389932702</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02022908649775869</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0005107406941877435</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-45.2501724228857</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.493820359830621e-05</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.02123012319013758</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.01922804980537981</v>
-      </c>
+        <v>0.08752088187372892</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.08332257350951014</v>
+        <v>0.2239226968807367</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01868180323926643</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0005133976541210357</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-40.50507947352057</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9.308157813445389e-10</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.019688047488413</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.01767555899011986</v>
-      </c>
+        <v>-0.1364018150070078</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.08486985676800241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01375879507397638</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0005066432659797216</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-29.82110958928846</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.004430486168636368</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01475180091943292</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01276578922851984</v>
-      </c>
+        <v>0.08751626556913805</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.08979286493329244</v>
+        <v>0.2239180805761459</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01066353889316212</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0005165612062493861</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-22.77794337368379</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.003807948801772707</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.01167598359744673</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.009651094188877513</v>
-      </c>
+        <v>0.09325781619031848</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.0928881211141067</v>
+        <v>0.2296596311973263</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.007971494710037623</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0005198899267556144</v>
+        <v>0.09752906151044501</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="D21" t="n">
-        <v>-16.34996135441444</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.0007025361012678011</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.008990463605284941</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.006952525814790303</v>
-      </c>
+        <v>21.59998846044933</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.09558016529723121</v>
+        <v>0.2339308765174528</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006276918547910124</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0005217135478998222</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-11.74999643277893</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.07888572734725638</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.007299461692614758</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.005254375403205489</v>
-      </c>
+        <v>0.1016724629210009</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.0972747414593587</v>
+        <v>0.2380742779280088</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005691558156882836</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0005194599338574708</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-10.7663315771918</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.04890490117565775</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.006709684300051866</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.004673432013713807</v>
-      </c>
+        <v>0.1045649536036775</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.09786010185038599</v>
+        <v>0.2409667686106853</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.003351629454146952</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0005216153424621573</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-5.537308793324643</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.003872847971501879</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.004373980112709091</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.002329278795584814</v>
-      </c>
+        <v>0.109347641620512</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.1002000305531219</v>
+        <v>0.2457494566275198</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002513949285762939</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0005145849590127363</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-5.029083678265312</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.002023359984642311</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.003522520582913741</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.001505377988612135</v>
-      </c>
+        <v>0.1094933271843712</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0.1010377107215059</v>
+        <v>0.245895142191379</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1108428068678876</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1094058576869.115</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0.2472446218748954</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1131803257307784</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0.2495821407377862</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1123528926992566</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.006411504751680252</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1517047552.000587</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.07492639909185543</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.09976192919300494</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1249438562055089</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2487547077062644</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.003223935057579217</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.001974971083303871</v>
-      </c>
-      <c r="D26" t="n">
-        <v>4.412452326525066</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.2244174520974901</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.001083207542279063</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.0048226244519292</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.106775595064848</v>
+      <c r="B29" t="n">
+        <v>0.005850799591666441</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0002185395824832631</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.55863015497118</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6.694029600304146e-05</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.005422321836902666</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.00627927734642998</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1422526145986742</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year15final.xlsx
+++ b/hourly datasets/cap_gen_year15final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1364018150070078</v>
+        <v>0.1011243397437618</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.101176295610906</v>
+        <v>0.1059144125693297</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2375781106179138</v>
+        <v>0.2070387523130915</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09201565911639389</v>
+        <v>0.09557263292740131</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2284174741234017</v>
+        <v>0.1966969726711631</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04479521435251291</v>
+        <v>0.05574495268222329</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -544,7 +544,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1811970293595207</v>
+        <v>0.1568692924259851</v>
       </c>
     </row>
     <row r="6">
@@ -554,25 +554,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02675900860212063</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.001433275392983477</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.660794460498439</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01532027870302154</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.02394187000328435</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.02957614720095681</v>
-      </c>
+        <v>0.04068131172004069</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.1631608236091285</v>
+        <v>0.1418056514638025</v>
       </c>
     </row>
     <row r="7">
@@ -582,25 +572,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008986324125547314</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0005301127614512826</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.962882863266003</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.001192453513833534</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.007945711933204343</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.01002693631789052</v>
-      </c>
+        <v>0.02561311561565319</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.1453881391325551</v>
+        <v>0.126737455359415</v>
       </c>
     </row>
     <row r="8">
@@ -610,25 +590,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.007305430032084151</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0003118449228648973</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.747354719122576</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.001595936848547845</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.006694047264714171</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.00791681279945388</v>
-      </c>
+        <v>0.03358538300629777</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>0.143707245039092</v>
+        <v>0.1347097227500596</v>
       </c>
     </row>
     <row r="9">
@@ -638,25 +608,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007223353529744135</v>
+        <v>0.03442816579262112</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0004227825746509392</v>
+        <v>0.00141594982786167</v>
       </c>
       <c r="D9" t="n">
-        <v>1.704182433572527</v>
+        <v>6.537405176911589</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002783704416141407</v>
+        <v>0.007345767487641948</v>
       </c>
       <c r="F9" t="n">
-        <v>0.006394057107021611</v>
+        <v>0.03165177794909237</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008052649952466857</v>
+        <v>0.03720455363614848</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1436251685367519</v>
+        <v>0.1355525055363829</v>
       </c>
     </row>
     <row r="10">
@@ -666,25 +636,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.006642132569055025</v>
+        <v>0.0339338146056304</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003545535118238823</v>
+        <v>0.002175518972394081</v>
       </c>
       <c r="D10" t="n">
-        <v>1.734455117449205</v>
+        <v>6.756659780268594</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001641612324939235</v>
+        <v>0.006949519492414804</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005946969465727064</v>
+        <v>0.02966593777149067</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007337295672382727</v>
+        <v>0.03820169143977017</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1430439475760628</v>
+        <v>0.1350581543493922</v>
       </c>
     </row>
     <row r="11">
@@ -694,7 +664,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03088647470208723</v>
+        <v>0.0327383655909028</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -702,7 +672,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.167288289709095</v>
+        <v>0.1338627053346646</v>
       </c>
     </row>
     <row r="12">
@@ -712,7 +682,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0517890340121508</v>
+        <v>0.05449241652816593</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -720,7 +690,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1881908490191586</v>
+        <v>0.1556167562719277</v>
       </c>
     </row>
     <row r="13">
@@ -730,7 +700,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06564128595611979</v>
+        <v>0.06806478292631106</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -738,7 +708,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.2020431009631276</v>
+        <v>0.1691891226700729</v>
       </c>
     </row>
     <row r="14">
@@ -748,7 +718,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07502495109961144</v>
+        <v>0.07758320361859486</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -756,7 +726,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2114267661066193</v>
+        <v>0.1787075433623567</v>
       </c>
     </row>
     <row r="15">
@@ -766,7 +736,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08101156369199451</v>
+        <v>0.08353282968207291</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -774,7 +744,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2174133786990023</v>
+        <v>0.1846571694258347</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +754,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08387322398626233</v>
+        <v>0.08650998181587267</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -792,7 +762,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2202750389932702</v>
+        <v>0.1876343215596345</v>
       </c>
     </row>
     <row r="17">
@@ -802,7 +772,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08752088187372892</v>
+        <v>0.08938267756420135</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -810,7 +780,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.2239226968807367</v>
+        <v>0.1905070173079632</v>
       </c>
     </row>
     <row r="18">
@@ -820,13 +790,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1364018150070078</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>-0.1011243397437618</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.008565126237189784</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-18.48051040529181</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.02666114851933578</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.1179468983065625</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.08430178118096128</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
@@ -838,7 +818,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08751626556913805</v>
+        <v>0.08808702858097425</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -846,7 +826,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2239180805761459</v>
+        <v>0.1892113683247361</v>
       </c>
     </row>
     <row r="20">
@@ -856,7 +836,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09325781619031848</v>
+        <v>0.09420210484596651</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -864,7 +844,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.2296596311973263</v>
+        <v>0.1953264445897283</v>
       </c>
     </row>
     <row r="21">
@@ -874,21 +854,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.09752906151044501</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.09973090790117507</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.007179971999636597</v>
       </c>
       <c r="D21" t="n">
-        <v>21.59998846044933</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+        <v>24.66851722583405</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.04275798371787459</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.08562512037391359</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.113836695428437</v>
+      </c>
       <c r="H21" t="n">
-        <v>0.2339308765174528</v>
+        <v>0.2008552476449369</v>
       </c>
     </row>
     <row r="22">
@@ -898,15 +882,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1016724629210009</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+        <v>0.1040090445197312</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.007280550556782495</v>
+      </c>
+      <c r="D22" t="n">
+        <v>25.54785006092779</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.03768649338384446</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.08969864624144257</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1183194427980196</v>
+      </c>
       <c r="H22" t="n">
-        <v>0.2380742779280088</v>
+        <v>0.205133384263493</v>
       </c>
     </row>
     <row r="23">
@@ -916,15 +910,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1045649536036775</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+        <v>0.1072261708738029</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.007381001408381161</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-438475234852.7534</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.03799225941035007</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.09272396700087966</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1217283747467261</v>
+      </c>
       <c r="H23" t="n">
-        <v>0.2409667686106853</v>
+        <v>0.2083505106175647</v>
       </c>
     </row>
     <row r="24">
@@ -934,15 +938,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.109347641620512</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+        <v>0.1116833987350626</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.007443584060648076</v>
+      </c>
+      <c r="D24" t="n">
+        <v>26.84287002548955</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.04165186913903106</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.09704931595348699</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1263174815166377</v>
+      </c>
       <c r="H24" t="n">
-        <v>0.2457494566275198</v>
+        <v>0.2128077384788244</v>
       </c>
     </row>
     <row r="25">
@@ -952,7 +966,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1094933271843712</v>
+        <v>0.1114848809021334</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -960,7 +974,7 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0.245895142191379</v>
+        <v>0.2126092206458952</v>
       </c>
     </row>
     <row r="26">
@@ -970,21 +984,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1108428068678876</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.114026800815633</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.007233691268618695</v>
       </c>
       <c r="D26" t="n">
-        <v>1094058576869.115</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>236832989246.0349</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.04945061947872778</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.09981357336792267</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1282400282633437</v>
+      </c>
       <c r="H26" t="n">
-        <v>0.2472446218748954</v>
+        <v>0.2151511405593948</v>
       </c>
     </row>
     <row r="27">
@@ -994,7 +1012,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1131803257307784</v>
+        <v>0.1151189497054282</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1002,7 +1020,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>0.2495821407377862</v>
+        <v>0.21624328944919</v>
       </c>
     </row>
     <row r="28">
@@ -1012,25 +1030,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1123528926992566</v>
+        <v>0.1158395932102434</v>
       </c>
       <c r="C28" t="n">
-        <v>0.006411504751680252</v>
+        <v>0.006644235413936671</v>
       </c>
       <c r="D28" t="n">
-        <v>1517047552.000587</v>
+        <v>26.21812983995269</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07492639909185543</v>
+        <v>0.07409958591981149</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09976192919300494</v>
+        <v>0.1027944907970785</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1249438562055089</v>
+        <v>0.1288846956234086</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2487547077062644</v>
+        <v>0.2169639329540052</v>
       </c>
     </row>
     <row r="29">
@@ -1040,25 +1058,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.005850799591666441</v>
+        <v>0.03391983888776901</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0002185395824832631</v>
+        <v>0.001755949212353712</v>
       </c>
       <c r="D29" t="n">
-        <v>1.55863015497118</v>
+        <v>7.118703821210458</v>
       </c>
       <c r="E29" t="n">
-        <v>6.694029600304146e-05</v>
+        <v>0.004684000656112387</v>
       </c>
       <c r="F29" t="n">
-        <v>0.005422321836902666</v>
+        <v>0.03046947069317098</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00627927734642998</v>
+        <v>0.03737020708236766</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1422526145986742</v>
+        <v>0.1350441786315308</v>
       </c>
     </row>
   </sheetData>
